--- a/Traduzido/PTBR/Lang/PTBR/Game/Hobby.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Hobby.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25F31FE-ACD3-4477-9AEF-CDABCC3F4A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32535BF3-90E3-4A3C-8EEB-664EC38291FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,19 +727,19 @@
     <t>Acumulação</t>
   </si>
   <si>
-    <t xml:space="preserve">Ressurreição automática dos residentes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crescimento mais rápido da Pedra do Lar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limpar a casa  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Imposto alto </t>
   </si>
   <si>
-    <t xml:space="preserve">Coletar tesouro automaticamente (Requer mapa do tesouro)  </t>
+    <t>Ressurreição automática dos residentes</t>
+  </si>
+  <si>
+    <t>Crescimento mais rápido da Pedra do Lar</t>
+  </si>
+  <si>
+    <t>Limpar a casa</t>
+  </si>
+  <si>
+    <t>Coletar tesouro automaticamente (Requer mapa do tesouro)</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1121,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1703,7 @@
         <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
         <v>105</v>
@@ -1848,7 +1848,7 @@
         <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G41" t="s">
         <v>131</v>
@@ -1925,7 +1925,7 @@
         <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -2036,7 +2036,7 @@
         <v>162</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
         <v>100</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Hobby.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Hobby.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32535BF3-90E3-4A3C-8EEB-664EC38291FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8FE4E-3517-425D-A642-A977412DFDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1120,8 +1120,8 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1362,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -1677,7 +1677,7 @@
         <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="G32" t="s">
         <v>100</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Hobby.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Hobby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8FE4E-3517-425D-A642-A977412DFDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D06A95-BFA2-4B4B-B61B-5252A939C780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,12 +1121,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="56.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="16" customWidth="1" collapsed="1"/>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Hobby.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Hobby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D06A95-BFA2-4B4B-B61B-5252A939C780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD18BD4-B303-4294-81F2-048CEBCB2639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="292">
   <si>
     <t>id</t>
   </si>
@@ -583,163 +583,322 @@
     <t>EA 23.69</t>
   </si>
   <si>
-    <t>Jardinagem</t>
-  </si>
-  <si>
-    <t>Leitura</t>
-  </si>
-  <si>
-    <t>Caça</t>
-  </si>
-  <si>
-    <t>Exercício</t>
-  </si>
-  <si>
-    <t>Instrumento</t>
-  </si>
-  <si>
-    <t>Cozinha</t>
-  </si>
-  <si>
-    <t>Oração</t>
-  </si>
-  <si>
-    <t>Escrita</t>
-  </si>
-  <si>
-    <t>Pintura</t>
-  </si>
-  <si>
-    <t>Caminhada</t>
-  </si>
-  <si>
-    <t>Banho</t>
-  </si>
-  <si>
-    <t>Limpeza</t>
-  </si>
-  <si>
-    <t>Canto</t>
-  </si>
-  <si>
-    <t>Sorteio</t>
-  </si>
-  <si>
-    <t>Diário</t>
-  </si>
-  <si>
-    <t>História</t>
-  </si>
-  <si>
-    <t>Dormindo</t>
-  </si>
-  <si>
-    <t>Torcida</t>
-  </si>
-  <si>
-    <t>Autoagressão</t>
-  </si>
-  <si>
-    <t>Droga</t>
-  </si>
-  <si>
-    <t>Lavagem</t>
-  </si>
-  <si>
-    <t>Lixo</t>
-  </si>
-  <si>
-    <t>Dieta</t>
-  </si>
-  <si>
-    <t>Artesanato</t>
-  </si>
-  <si>
-    <t>Compras</t>
-  </si>
-  <si>
-    <t>Bebida</t>
-  </si>
-  <si>
-    <t>Fumo</t>
-  </si>
-  <si>
-    <t>Enfermagem</t>
-  </si>
-  <si>
-    <t>Jogo</t>
-  </si>
-  <si>
-    <t>Carinho Macio</t>
-  </si>
-  <si>
-    <t>Prazer Pessoal</t>
-  </si>
-  <si>
-    <t>Animal de Estimação</t>
-  </si>
-  <si>
-    <t>Meditação</t>
-  </si>
-  <si>
-    <t>Antiguidades</t>
-  </si>
-  <si>
-    <t>Agricultura</t>
-  </si>
-  <si>
-    <t>Pioneiro</t>
-  </si>
-  <si>
-    <t>Pesquisa</t>
-  </si>
-  <si>
-    <t>Pesca</t>
-  </si>
-  <si>
-    <t>Exploração</t>
-  </si>
-  <si>
-    <t>Tarefas</t>
-  </si>
-  <si>
-    <t>Ferreiro</t>
-  </si>
-  <si>
-    <t>Lenhador</t>
-  </si>
-  <si>
-    <t>Criação</t>
-  </si>
-  <si>
-    <t>Supervisão</t>
-  </si>
-  <si>
-    <t>Assassinato</t>
-  </si>
-  <si>
-    <t>Extravagância</t>
-  </si>
-  <si>
-    <t>Caça ao Tesouro</t>
-  </si>
-  <si>
-    <t>Acumulação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imposto alto </t>
-  </si>
-  <si>
-    <t>Ressurreição automática dos residentes</t>
-  </si>
-  <si>
-    <t>Crescimento mais rápido da Pedra do Lar</t>
-  </si>
-  <si>
-    <t>Limpar a casa</t>
-  </si>
-  <si>
-    <t>Coletar tesouro automaticamente (Requer mapa do tesouro)</t>
+    <t xml:space="preserve">Jardinagem  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leitura  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caça  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercício  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culinária  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oração  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escrita  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintura  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caminhada  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faxina  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loteria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gacha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diário  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">História  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormir  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torcida  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romance  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automutilação  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drogas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garbologia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dieta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artesanato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beber  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fumar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meditação  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiguidades  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazenda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pioneirismo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesquisa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesca  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploração  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferreiro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenhador  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisão  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esbanjamento  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rambo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boatos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuidar de Alguém  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavagem de Roupa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acariciar Coisas Fofas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prazer Pessoal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicho de Estimação  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afazeres Domésticos  </t>
+  </si>
+  <si>
+    <t>Procriação  (Animais)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caça ao Tesouro  </t>
+  </si>
+  <si>
+    <t>Acúmulo de Coisas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumento Musical  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuidar de plantas, flores ou hortas, mexendo com a terra.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mergulhar em livros, revistas ou qualquer material escrito.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perseguir e capturar animais, geralmente por esporte ou sobrevivência.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praticar atividades físicas para manter a saúde e o corpo em forma.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocar violão, piano, bateria ou qualquer instrumento.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparar alimentos, explorar receitas e criar pratos saborosos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prática espiritual de se conectar com divindades ou forças superiores.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar textos, histórias ou anotações com criatividade ou propósito.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar pincéis, tintas e criatividade para criar arte visual.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andar por lazer, saúde ou inspiração em ambientes variados.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relaxar e limpar o corpo com água quente ou fria.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpar e organizar ambientes para deixá-los agradáveis.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar a voz para cantar músicas, sozinho ou com outros.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentar a sorte em jogos de azar, esperando grandes prêmios.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participar de sistemas de sorteio (muito comum em jogos mobile).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escrever pensamentos, sentimentos e eventos do dia a dia.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudar ou se interessar por fatos e eventos do passado.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar conteúdo escrito online sobre assuntos de interesse pessoal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirar cochilos ou longos períodos de descanso para recuperar energia.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoiar com entusiasmo algo ou alguém, como em esportes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesse e envolvimento com sentimentos amorosos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prática autodestrutiva de causar dor a si mesmo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de substâncias que alteram o estado mental ou físico.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividade de limpar roupas sujas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasculhar lixo ou restos em busca de algo útil ou valioso.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter controle alimentar para saúde, estética ou objetivos pessoais.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar objetos manuais como bordados, esculturas ou bijuterias.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividade de adquirir produtos por necessidade ou prazer.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingerir bebidas alcoólicas social ou recreativamente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fumar cigarros, charutos ou outras substâncias.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praticar jogos eletrônicos, de tabuleiro ou físicos por diversão.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocar e acariciar animais ou objetos macios.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividades íntimas de autossatisfação.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuidar de animais como cães, gatos, pássaros, etc.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focar na respiração e mente para relaxamento e clareza mental.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesse por objetos e itens antigos, colecionáveis.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultivar plantações ou cuidar de animais em ambiente rural.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigar assuntos em busca de conhecimento ou soluções.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividade de capturar peixes com vara, rede ou anzol.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventure-se por locais desconhecidos ou inexplorados.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalhar com metais para criar armas, ferramentas ou objetos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortar árvores e lidar com madeira como recurso.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar e cuidar da reprodução de plantas ou animais.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuar como responsável ou líder de um grupo ou projeto.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar alvos de forma furtiva ou violenta (em contexto fictício, claro).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastar excessivamente com luxo, futilidades ou exageros.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo de combate agressivo e solitário, estilo "um exército de um homem só".  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espalhar ou escutar rumores, fofocas e histórias.  </t>
+  </si>
+  <si>
+    <t>Guardar e colecionar itens, muitas vezes sem uso imediato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurar objetos valiosos ou escondidos com pistas ou mapas (Requer "Mapa do Tesouro").  </t>
+  </si>
+  <si>
+    <t>Prestar cuidados a pessoas doentes ou necessitadas. Revive moradores.</t>
+  </si>
+  <si>
+    <t>Realizar tarefas do dia a dia dentro de casa. Limpeza geral.</t>
+  </si>
+  <si>
+    <t>Explorar ou desenvolver terras, ideias ou projetos novos. Ajuda a desenvolver a Pedra da Cidade.</t>
   </si>
 </sst>
 </file>
@@ -780,9 +939,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,18 +1282,19 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="56.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1176,6 +1339,9 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1193,6 +1359,9 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="F4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1210,6 +1379,9 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1227,6 +1399,9 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1236,13 +1411,16 @@
         <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,13 +1431,16 @@
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1270,13 +1451,16 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1287,13 +1471,16 @@
         <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1304,13 +1491,16 @@
         <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1321,13 +1511,16 @@
         <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,13 +1531,16 @@
         <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,7 +1551,7 @@
         <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -1364,7 +1560,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -1381,13 +1577,16 @@
         <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,13 +1597,16 @@
         <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,13 +1617,16 @@
         <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,6 +1645,9 @@
       <c r="E18" t="s">
         <v>57</v>
       </c>
+      <c r="F18" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1457,6 +1665,9 @@
       <c r="E19" t="s">
         <v>60</v>
       </c>
+      <c r="F19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1466,13 +1677,16 @@
         <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,13 +1697,16 @@
         <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
         <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1500,13 +1717,16 @@
         <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="s">
         <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1517,13 +1737,16 @@
         <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="D23" t="s">
         <v>71</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1534,13 +1757,16 @@
         <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
       </c>
       <c r="E24" t="s">
         <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1551,13 +1777,16 @@
         <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D25" t="s">
         <v>77</v>
       </c>
       <c r="E25" t="s">
         <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1568,13 +1797,16 @@
         <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
       </c>
       <c r="E26" t="s">
         <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1584,14 +1816,17 @@
       <c r="B27" t="s">
         <v>177</v>
       </c>
-      <c r="C27" t="s">
-        <v>207</v>
+      <c r="C27" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
       </c>
       <c r="E27" t="s">
         <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1601,14 +1836,17 @@
       <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="C28" t="s">
-        <v>208</v>
+      <c r="C28" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="D28" t="s">
         <v>86</v>
       </c>
       <c r="E28" t="s">
         <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1619,13 +1857,16 @@
         <v>177</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s">
         <v>89</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,13 +1877,16 @@
         <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
         <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,13 +1897,16 @@
         <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
         <v>95</v>
       </c>
       <c r="E31" t="s">
         <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,7 +1917,7 @@
         <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
@@ -1679,7 +1926,7 @@
         <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
         <v>100</v>
@@ -1696,7 +1943,7 @@
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
         <v>103</v>
@@ -1705,7 +1952,7 @@
         <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="G33" t="s">
         <v>105</v>
@@ -1730,6 +1977,9 @@
       <c r="E34" t="s">
         <v>109</v>
       </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1739,13 +1989,16 @@
         <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
         <v>111</v>
       </c>
       <c r="E35" t="s">
         <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,13 +2009,16 @@
         <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
         <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,13 +2029,16 @@
         <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D37" t="s">
         <v>117</v>
       </c>
       <c r="E37" t="s">
         <v>118</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1790,13 +2049,16 @@
         <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
         <v>120</v>
       </c>
       <c r="E38" t="s">
         <v>121</v>
+      </c>
+      <c r="F38" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,13 +2069,16 @@
         <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
         <v>123</v>
       </c>
       <c r="E39" t="s">
         <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1824,13 +2089,16 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
         <v>126</v>
       </c>
       <c r="E40" t="s">
         <v>127</v>
+      </c>
+      <c r="F40" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,7 +2109,7 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
         <v>129</v>
@@ -1850,7 +2118,7 @@
         <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
         <v>131</v>
@@ -1867,13 +2135,16 @@
         <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
         <v>134</v>
       </c>
       <c r="E42" t="s">
         <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1884,13 +2155,16 @@
         <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
         <v>137</v>
       </c>
       <c r="E43" t="s">
         <v>138</v>
+      </c>
+      <c r="F43" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1901,13 +2175,16 @@
         <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D44" t="s">
         <v>140</v>
       </c>
       <c r="E44" t="s">
         <v>141</v>
+      </c>
+      <c r="F44" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1918,7 +2195,7 @@
         <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D45" t="s">
         <v>143</v>
@@ -1927,7 +2204,7 @@
         <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -1944,13 +2221,16 @@
         <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
         <v>146</v>
       </c>
       <c r="E46" t="s">
         <v>147</v>
+      </c>
+      <c r="F46" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,13 +2241,16 @@
         <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
         <v>149</v>
       </c>
       <c r="E47" t="s">
         <v>150</v>
+      </c>
+      <c r="F47" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1978,13 +2261,16 @@
         <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
         <v>152</v>
       </c>
       <c r="E48" t="s">
         <v>153</v>
+      </c>
+      <c r="F48" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1995,13 +2281,16 @@
         <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D49" t="s">
         <v>155</v>
       </c>
       <c r="E49" t="s">
         <v>156</v>
+      </c>
+      <c r="F49" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2012,13 +2301,16 @@
         <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
         <v>158</v>
       </c>
       <c r="E50" t="s">
         <v>159</v>
+      </c>
+      <c r="F50" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,7 +2321,7 @@
         <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
         <v>161</v>
@@ -2038,7 +2330,7 @@
         <v>162</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="G51" t="s">
         <v>100</v>
@@ -2055,13 +2347,16 @@
         <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="D52" t="s">
         <v>164</v>
       </c>
       <c r="E52" t="s">
         <v>165</v>
+      </c>
+      <c r="F52" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2072,13 +2367,16 @@
         <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="D53" t="s">
         <v>167</v>
       </c>
       <c r="E53" t="s">
         <v>168</v>
+      </c>
+      <c r="F53" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2089,7 +2387,7 @@
         <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
         <v>170</v>
@@ -2098,7 +2396,7 @@
         <v>171</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="G54" t="s">
         <v>172</v>
@@ -2115,13 +2413,16 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s">
         <v>175</v>
       </c>
       <c r="E55" t="s">
         <v>176</v>
+      </c>
+      <c r="F55" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
